--- a/example_data/Patient_lists/patient_list_unsupervised_gaussian.xlsx
+++ b/example_data/Patient_lists/patient_list_unsupervised_gaussian.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhennongchen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CTDenoising_Diffusion_N2N\example_data\Patient_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE78C1E-C162-124A-8E64-402D2D68A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735A009-BE6C-45AD-91BB-577FAF601BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1240" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="7760" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,16 +45,16 @@
     <t>ground_truth_file</t>
   </si>
   <si>
-    <t>/mnt/camca_NAS/denoising/example_data/simulation/00004038/0000455420/gaussian_random_0/recon.nii.gz</t>
-  </si>
-  <si>
-    <t>/mnt/camca_NAS/denoising/example_data/fixedCT/00004038/0000455420/img_thinslice_partial.nii.gz</t>
-  </si>
-  <si>
     <t>00004038</t>
   </si>
   <si>
     <t>0000455420</t>
+  </si>
+  <si>
+    <t>/host/d/Github/CTDenoising_Diffusion_N2N/example_data/simulation/00004038/0000455420/gaussian_random_0/recon.nii.gz</t>
+  </si>
+  <si>
+    <t>/host/d/Github/CTDenoising_Diffusion_N2N/example_data/fixedCT/00004038/0000455420/img_thinslice_partial.nii.gz</t>
   </si>
 </sst>
 </file>
@@ -417,12 +422,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,24 +447,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
